--- a/reproduce_report.xlsx
+++ b/reproduce_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,34 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>apache-commons-cli</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025.9.20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>无法从gcr.io下载基础镜像：dial tcp [2404:6800:4008:c05::52]:443: i/o timeout</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reproduce_report.xlsx
+++ b/reproduce_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,90 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>apache-commons-configuration</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025.9.25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maven依赖下载失败：无法连接到repo.maven.apache.org下载commons-collections4-4.4.jar，连接超时</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>apache-cxf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025.9.25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>原始构建失败：无法连接到 archive.apache.org 下载 Maven (Connection refused)。新构建失败：在下载公共后缀列表时连接到 publicsuffix.org 超时 (Read timed out)。两个错误都与网络连接问题相关，但具体错误不同。</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aptos-core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025.10.7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>环境问题
+RC1：编译器问题</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rust 编译器错误 E0658：项目使用了不稳定的 `let` 表达式语法（let chains），需要添加 `#![feature(let_chains)]` 特性来启用该功能，或者使用稳定版本的 Rust 编译器。</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reproduce_report.xlsx
+++ b/reproduce_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,1266 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bazel-rules-fuzzing-test</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Docker构建失败：无法从gcr.io拉取基础镜像，网络连接超时（TLS handshake timeout）</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bc-gh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC12：模糊测试构建脚本问题</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>配置脚本错误：bc项目的configure脚本不支持-Z选项，导致配置失败</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bind9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025.9.24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC10：项目配置与构建文件问题</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Meson配置错误：fuzzing选项的值'oss-fuzz'不是有效选项，有效选项为'enabled', 'disabled', 'auto'</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>bs4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025.10.24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>包管理器错误：无法下载distro-info-data包，返回404 Not Found错误</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bs4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025.10.9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>包管理器错误：无法下载distro-info-data包，返回404 Not Found错误</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>bs4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025.9.24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>包管理器错误：无法下载distro-info-data包，返回404 Not Found错误</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>checker-framework</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025.10.21</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>环境问题
+RC1：编译器问题</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Java版本兼容性问题：ErrorProneJavacPlugin使用Java 21（class file version 65.0）编译，但当前运行时环境只支持到Java 17（class file version 61.0），导致UnsupportedClassVersionError。</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cilium</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025.9.17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>源码相关问题
+RC13：源码相关的项目编译错误</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Go编译错误：在cilium项目的policy包中，`l4_filter_test_fuzz.go`文件引用了未定义的函数`FuzzMatchpatternValidate`和变量`OriginForTest`，导致编译失败。</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>commons-validator</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024.1.23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC10：项目配置与构建文件问题</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>项目目录不存在，构建时提示'commons-validator' does not exist。原始错误是网络连接问题（下载commons-compress依赖失败），但新构建错误是项目配置问题，两者不一致。</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cryptography</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025.10.5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>cryptography 库要求链接 OpenSSL 3.0.0 或更高版本，但当前环境中的 OpenSSL 版本不满足要求。构建过程中出现编译错误：'pyca/cryptography MUST be linked with OpenSSL 3.0.0 or later'。</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>edk2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025.9.26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>在构建过程中克隆 EDK2 仓库时发生网络连接错误：'error: RPC failed; curl 56 GnuTLS recv error (-9): Error decoding the received TLS packet.'。原始错误是配置问题（tools_def.txt 中未定义的宏），但新构建错误是网络问题，两者不一致。</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>feign</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025.9.18</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Maven 构建过程中无法解析依赖 'io.github.openfeign:feign-form-spring:jar:13.7-SNAPSHOT'。该依赖在 Sonatype 快照仓库中不存在，导致构建失败。</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>freeimage</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025.10.24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>在构建过程中拉取基础镜像时发生网络连接错误：'net/http: TLS handshake timeout'。原始错误是 SVN 服务器不可用（HTTP 503），但新构建错误是网络连接问题，两者不一致。</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>gateway</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>环境问题
+RC2：覆盖文件及目录问题</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Go模块系统在构建过程中出现覆盖文件冲突，具体是overlay包含了对GOMODCACHE目录下文件的替换，这是不允许的，导致构建失败。</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gdal</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025.10.22</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Docker构建过程中无法连接到gcr.io镜像仓库，出现TLS握手超时错误，导致无法下载基础镜像，构建失败。</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>glaze</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025.9.16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>构建过程中链接器无法找到glz_asio库，导致多个测试程序链接失败，构建过程终止。</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>glslang</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025.10.12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>构建过程中链接器无法找到libSPVRemapper.a库文件，该库文件在构建过程中应该被生成但缺失，导致链接阶段失败。</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>glslang</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025.9.26</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>构建过程中链接器无法找到libSPVRemapper.a库文件，该库文件在构建过程中应该被生成但缺失，导致链接阶段失败。</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>go-ethereum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025.9.20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>源码相关问题
+RC13：源码相关的项目编译错误</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>在构建fuzzPrecompiledContracts时出现编译错误：'bench.Loop undefined (type *testing.B has no field or method Loop)'。这是源码相关的编译错误，可能是由于测试代码中的方法调用与当前Go版本或依赖库不兼容导致的。</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>graphicsfuzz-spirv</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC10：项目配置与构建文件问题</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CMake配置错误：'ENABLE_OPT set but SPIR-V tools not found'。glslang项目配置需要SPIRV-Tools，但构建系统未能正确找到或配置这些依赖工具。这属于项目构建配置问题，需要确保SPIRV-Tools正确安装和配置。</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>grok</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025.10.10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>在构建过程中出现依赖库缺失错误：'CLI/CLI.hpp' file not found。这是项目依赖问题，grok项目需要CLI库但构建系统未能正确找到或安装该依赖。此外，原始错误日志显示CMake配置时缺少Libpsl库，而新构建日志显示编译时缺少CLI库，表明存在多个依赖问题。</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>groovy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025.9.26</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC10：项目配置与构建文件问题</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Gradle构建失败，错误信息：'Could not get unknown property 'convention' for project ':groovy-test' of type org.gradle.api.Project.'。这是Gradle插件兼容性问题，ShadowJavaPlugin尝试访问已弃用的'convention'属性，可能与Gradle版本不兼容。两个日志都显示了相同的Gradle插件配置错误，表明这是持续存在的构建配置问题。</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>grpc-swift</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025.10.7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>环境问题
+RC1：编译器问题</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Swift版本不兼容错误：'package 'grpc-swift' is using Swift tools version 6.1.0 but the installed version is 5.10.1'。这是编译器版本兼容性问题，项目需要Swift 6.1.0但环境中只有Swift 5.10.1。两个日志都显示了相同的Swift版本不兼容错误，表明这是持续存在的环境配置问题。</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025.9.30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>在构建hadoop-gcp模块时，Maven无法从中央仓库下载依赖包，连接超时导致构建失败。具体错误：Connect to repo.maven.apache.org:443 failed: Connection timed out</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>haproxy</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025.10.22</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>在构建HAProxy的测试框架VTest2时，编译和链接过程失败。具体错误：缺少动态链接库函数（dlopen、dlerror等），表明构建环境缺少必要的动态链接库开发包。</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>jackson-core</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>环境问题
+RC1：编译器问题</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Jackson项目使用了Java 16+的语言特性（instanceof模式匹配），但构建环境配置为Java 15，导致编译失败。具体错误：pattern matching in instanceof is not supported in -source 15 和 module not found: tools.jackson.core</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jackson-databind</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>环境问题
+RC1：编译器问题</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Jackson项目使用了Java 16+的语言特性（instanceof模式匹配），但构建环境配置为Java 15，导致编译失败。具体错误：pattern matching in instanceof is not supported in -source 15 和 module not found: tools.jackson.core</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>jackson-dataformat-xml</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jackson XML数据格式项目依赖于tools.jackson.core模块，但构建环境中找不到该模块。具体错误：module not found: tools.jackson.core，表明缺少必要的Jackson核心模块依赖。</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jackson-dataformat-xml</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025.9.25</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>在新构建中，jackson-dataformat-xml项目在编译时无法找到tools.jackson.core模块，导致编译失败。错误信息：/src/jackson-dataformat-xml/src/main/java/module-info.java:[8,27] module not found: tools.jackson.core</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>jackson-dataformats-binary</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>在两个构建中，jackson-dataformats-binary项目的cbor子模块在编译时都无法找到tools.jackson.core模块，导致编译失败。错误信息：/src/jackson-dataformats-binary/cbor/src/main/java/module-info.java:[4,38] module not found: tools.jackson.core</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>jackson-dataformats-text</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>在两个构建中，jackson-dataformats-text项目的csv子模块在编译时都无法找到tools.jackson.core模块，导致编译失败。错误信息：/src/jackson-dataformats-text/csv/src/main/java/module-info.java:[4,27] module not found: tools.jackson.core</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>jackson-datatype-joda</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>在两个构建中，jackson-datatype-joda项目在编译模糊测试器时都无法找到Jackson相关的包，导致编译失败。错误包括：package com.fasterxml.jackson.core does not exist, package com.fasterxml.jackson.databind does not exist, package com.fasterxml.jackson.datatype.joda does not exist</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>jackson-datatypes-collections</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>项目依赖问题
+RC9：项目依赖问题</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>在两个构建中，jackson-datatypes-collections项目在编译模糊测试器时都无法找到Jackson相关的包，导致编译失败。错误包括：package com.fasterxml.jackson.core.type does not exist, package com.fasterxml.jackson.databind does not exist, package com.fasterxml.jackson.datatype.pcollections does not exist</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>jopt-simple</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025.10.2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>网络连接超时：原始错误是连接archive.apache.org下载Apache Maven时超时，新构建错误是连接gcr.io拉取基础镜像时超时。两个错误都表明存在网络连接问题。</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>jsc</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025.10.20</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>网络连接错误：新构建在克隆WebKit仓库时发生TLS包解码错误（curl 56 GnuTLS recv error），导致无法获取源码。原始错误是编译失败，但具体原因不明。</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>jsch</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025.10.16</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>环境问题
+RC1：编译器问题</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Java版本不兼容：检测到的Java版本是24.0.1，但项目要求Java版本25或更高。Maven enforcer规则检查失败，两个构建都因为相同的Java版本问题而失败。</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>jsqlparser</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025.9.23</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>网络连接超时：新构建在连接gcr.io拉取基础镜像时发生超时错误。原始错误是Java编译错误，JavaCC生成的解析器代码缺少符号定义。两个错误原因不同。</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>libidn</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025.10.9</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>在git clone过程中出现TLS连接错误：error: RPC failed; curl 56 GnuTLS recv error (-9): Error decoding the received TLS packet. 导致无法从git.savannah.gnu.org下载libidn源代码。</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>libidn2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025.9.29</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>环境问题
+RC4：网络问题</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>在Docker构建阶段出现网络连接错误，无法连接到Ubuntu软件包仓库下载依赖包（Connection failed [IP: 198.18.0.40 80]），导致apt-get install失败。</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>libmediaart</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020.11.27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>环境问题
+RC3：项目环境问题</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>新构建失败：'libmediaart'项目不存在于当前OSS-Fuzz环境中，可能是项目已被移除或配置缺失。原始错误是运行时崩溃（2个fuzz目标启动失败），但新构建在早期阶段就失败了。</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>libpng</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025.9.30</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC10：项目配置与构建文件问题</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>构建失败：libpng仓库中缺少contrib/oss-fuzz/build.sh文件。Dockerfile试图从克隆的libpng仓库复制构建脚本，但该文件不存在。这表明项目配置与当前仓库结构不匹配，可能是仓库结构变化或构建脚本被移除。</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>libpng-proto</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025.9.30</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>构建与配置问题
+RC10：项目配置与构建文件问题</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>构建失败：libpng仓库中缺少contrib/oss-fuzz/build.sh文件。构建脚本试图从libpng仓库执行构建脚本，但该文件不存在。这表明项目配置与当前仓库结构不匹配，可能是仓库结构变化或构建脚本被移除。与libpng项目相同的问题模式。</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>libpsl</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025.10.1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>下载外部资源问题
+RC8：下载外部资源时出错</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>构建失败：在克隆gnulib仓库时，远程服务器报告内存不足和pack文件损坏。错误信息显示'remote: error: Out of memory, malloc failed'和'remote: fatal: packed object is corrupt'，表明git.savannah.gnu.org服务器存在问题，无法正常提供仓库数据。</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>libpsl</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025.10.3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>下载外部资源问题
+RC8：下载外部资源时出错</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>构建失败：在克隆gnulib仓库时，远程服务器报告内存不足和pack文件损坏。错误信息显示'remote: error: Out of memory, malloc failed'和'remote: fatal: packed object is corrupt'，表明git.savannah.gnu.org服务器持续存在问题，无法正常提供仓库数据。与2025.10.1的错误相同。</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>libpsl</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025.9.25</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>下载外部资源问题
+RC8：下载外部资源时出错</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>构建失败：在克隆gnulib仓库时，远程服务器报告内存不足和pack文件损坏。错误信息显示'remote: error: Out of memory, malloc failed'和'remote: fatal: packed object is corrupt'，表明git.savannah.gnu.org服务器持续存在问题，无法正常提供仓库数据。与2025.10.1和2025.10.3的错误相同，这是一个持续的外部依赖问题。</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
